--- a/MagneticReport.xlsx
+++ b/MagneticReport.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137" count="256">
   <si>
     <t xml:space="preserve"> GÖZETİM MUAYENE VE EĞİTİM HİZMETLERİ</t>
   </si>
@@ -80,6 +80,9 @@
     </r>
   </si>
   <si>
+    <t>HAsan</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="1"/>
@@ -146,7 +149,7 @@
     </r>
   </si>
   <si>
-    <t>KAYNAKÇI TESTİ</t>
+    <t>asda</t>
   </si>
   <si>
     <r>
@@ -212,9 +215,6 @@
     </r>
   </si>
   <si>
-    <t>İZMİT</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b val="1"/>
@@ -281,7 +281,7 @@
     </r>
   </si>
   <si>
-    <t>TS EN ISO 17638</t>
+    <t>asdas</t>
   </si>
   <si>
     <r>
@@ -350,7 +350,7 @@
     </r>
   </si>
   <si>
-    <t>TS EN ISO 23278 Class B</t>
+    <t>asdasd</t>
   </si>
   <si>
     <r>
@@ -1429,6 +1429,99 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1665,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1775,6 +1868,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -2055,7 +2161,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2107,6 +2213,15 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -2114,7 +2229,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -2122,361 +2237,364 @@
     <xf numFmtId="1" fontId="9" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2494,46 +2612,49 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2575,13 +2696,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>129538</xdr:rowOff>
+      <xdr:rowOff>129537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>2540</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>198541</xdr:rowOff>
+      <xdr:rowOff>198539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2600,8 +2721,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2547620" y="5213983"/>
-          <a:ext cx="1645921" cy="1079924"/>
+          <a:off x="2547620" y="5213982"/>
+          <a:ext cx="1645921" cy="1079923"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2620,13 +2741,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>74023</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>145869</xdr:rowOff>
+      <xdr:rowOff>145868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>74921</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>37137</xdr:rowOff>
+      <xdr:rowOff>37135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2645,8 +2766,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="74023" y="5230314"/>
-          <a:ext cx="1931299" cy="902189"/>
+          <a:off x="74023" y="5230313"/>
+          <a:ext cx="1931299" cy="902188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3823,1577 +3944,1583 @@
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+      <c r="D3" t="s" s="16">
+        <v>105</v>
+      </c>
       <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" t="s" s="18">
-        <v>3</v>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" t="s" s="21">
+        <v>4</v>
       </c>
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
-      <c r="T3" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" t="s" s="18">
-        <v>5</v>
+      <c r="T3" t="s" s="22">
+        <v>105</v>
+      </c>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" t="s" s="21">
+        <v>6</v>
       </c>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
-      <c r="AA3" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="22"/>
+      <c r="AA3" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB3" s="25"/>
     </row>
     <row r="4" ht="28.15" customHeight="1">
-      <c r="A4" t="s" s="23">
-        <v>6</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24" t="s">
+      <c r="A4" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" t="s" s="29">
         <v>105</v>
       </c>
-      <c r="D4" t="s" s="25">
-        <v>7</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" t="s" s="27">
-        <v>8</v>
-      </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="28">
-        <v>0.2</v>
-      </c>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" t="s" s="27">
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" t="s" s="31">
         <v>9</v>
       </c>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="30">
-        <v>2019101621</v>
-      </c>
-      <c r="AB4" s="31"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" t="s" s="31">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB4" s="35"/>
     </row>
     <row r="5" ht="28.15" customHeight="1">
-      <c r="A5" t="s" s="23">
-        <v>10</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" t="s" s="32">
+      <c r="A5" t="s" s="26">
         <v>11</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" t="s" s="27">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" t="s" s="36">
+        <v>105</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" t="s" s="31">
         <v>12</v>
       </c>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" t="s" s="35">
-        <v>13</v>
-      </c>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" t="s" s="27">
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" t="s" s="39">
+        <v>105</v>
+      </c>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" t="s" s="31">
         <v>14</v>
       </c>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="37">
-        <v>43754</v>
-      </c>
-      <c r="AB5" s="31"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB5" s="35"/>
     </row>
     <row r="6" ht="28.15" customHeight="1">
-      <c r="A6" t="s" s="23">
+      <c r="A6" t="s" s="26">
         <v>15</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" t="s" s="25">
-        <v>16</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" t="s" s="27">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" t="s" s="29">
+        <v>105</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" t="s" s="31">
         <v>17</v>
       </c>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" t="s" s="35">
-        <v>18</v>
-      </c>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" t="s" s="27">
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" t="s" s="39">
+        <v>105</v>
+      </c>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" t="s" s="31">
         <v>19</v>
       </c>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="30">
-        <v>2604</v>
-      </c>
-      <c r="AB6" s="31"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB6" s="35"/>
     </row>
     <row r="7" ht="28.15" customHeight="1">
-      <c r="A7" t="s" s="38">
+      <c r="A7" t="s" s="42">
         <v>20</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" t="s" s="40">
-        <v>21</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" t="s" s="42">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" t="s" s="44">
+        <v>105</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" t="s" s="46">
         <v>22</v>
       </c>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" t="s" s="43">
-        <v>23</v>
-      </c>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" t="s" s="42">
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" t="s" s="47">
+        <v>105</v>
+      </c>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" t="s" s="46">
         <v>24</v>
       </c>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" t="s" s="40">
-        <v>25</v>
-      </c>
-      <c r="AB7" s="45"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" t="s" s="44">
+        <v>105</v>
+      </c>
+      <c r="AB7" s="49"/>
     </row>
     <row r="8" ht="18.65" customHeight="1">
-      <c r="A8" t="s" s="46">
+      <c r="A8" t="s" s="50">
         <v>26</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="48"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="52"/>
     </row>
     <row r="9" ht="27.65" customHeight="1">
-      <c r="A9" t="s" s="23">
+      <c r="A9" t="s" s="26">
         <v>27</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" t="s" s="50">
-        <v>28</v>
-      </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" t="s" s="27">
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" t="s" s="54">
+        <v>105</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" t="s" s="31">
         <v>29</v>
       </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" t="s" s="50">
-        <v>30</v>
-      </c>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" t="s" s="27">
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" t="s" s="54">
+        <v>105</v>
+      </c>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" t="s" s="31">
         <v>31</v>
       </c>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" t="s" s="50">
-        <v>32</v>
-      </c>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="52"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" t="s" s="54">
+        <v>105</v>
+      </c>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="56"/>
     </row>
     <row r="10" ht="27.65" customHeight="1">
-      <c r="A10" t="s" s="23">
+      <c r="A10" t="s" s="26">
         <v>33</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" t="s" s="50">
-        <v>34</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" t="s" s="27">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" t="s" s="54">
+        <v>105</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" t="s" s="31">
         <v>35</v>
       </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" t="s" s="50">
-        <v>36</v>
-      </c>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" t="s" s="53">
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" t="s" s="54">
+        <v>105</v>
+      </c>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" t="s" s="57">
         <v>37</v>
       </c>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" t="s" s="50">
-        <v>38</v>
-      </c>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="52"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" t="s" s="54">
+        <v>105</v>
+      </c>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="56"/>
     </row>
     <row r="11" ht="27.65" customHeight="1">
-      <c r="A11" t="s" s="23">
+      <c r="A11" t="s" s="26">
         <v>39</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" t="s" s="50">
-        <v>40</v>
-      </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" t="s" s="27">
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" t="s" s="54">
+        <v>105</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" t="s" s="31">
         <v>41</v>
       </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" t="s" s="50">
-        <v>42</v>
-      </c>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="52"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" t="s" s="54">
+        <v>105</v>
+      </c>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="56"/>
     </row>
     <row r="12" ht="27.65" customHeight="1">
-      <c r="A12" t="s" s="23">
+      <c r="A12" t="s" s="26">
         <v>43</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" t="s" s="27">
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" t="s" s="31">
         <v>44</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" t="s" s="27">
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" t="s" s="31">
         <v>45</v>
       </c>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" t="s" s="56">
-        <v>46</v>
-      </c>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="57"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" t="s" s="60">
+        <v>105</v>
+      </c>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="61"/>
     </row>
     <row r="13" ht="27.65" customHeight="1">
-      <c r="A13" t="s" s="23">
+      <c r="A13" t="s" s="26">
         <v>47</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" t="s" s="50">
-        <v>48</v>
-      </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" t="s" s="27">
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" t="s" s="54">
+        <v>105</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" t="s" s="31">
         <v>49</v>
       </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" t="s" s="58">
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" t="s" s="62">
         <v>50</v>
       </c>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" t="s" s="61">
-        <v>51</v>
-      </c>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" t="s" s="65">
+        <v>105</v>
+      </c>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="67"/>
     </row>
     <row r="14" ht="27.65" customHeight="1">
-      <c r="A14" t="s" s="38">
+      <c r="A14" t="s" s="42">
         <v>52</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" t="s" s="65">
-        <v>53</v>
-      </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" t="s" s="42">
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" t="s" s="69">
+        <v>105</v>
+      </c>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" t="s" s="46">
         <v>54</v>
       </c>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" t="s" s="67">
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" t="s" s="71">
         <v>55</v>
       </c>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" t="s" s="70">
+      <c r="X14" s="72"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" t="s" s="74">
         <v>56</v>
       </c>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="72"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="76"/>
     </row>
     <row r="15" ht="19.9" customHeight="1">
-      <c r="A15" s="73"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" t="s" s="77">
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" t="s" s="81">
         <v>57</v>
       </c>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="79"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="83"/>
     </row>
     <row r="16" ht="19.9" customHeight="1">
-      <c r="A16" s="80"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" t="s" s="84">
+      <c r="A16" s="84"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" t="s" s="88">
         <v>58</v>
       </c>
-      <c r="R16" s="85"/>
-      <c r="S16" t="s" s="86">
+      <c r="R16" s="89"/>
+      <c r="S16" t="s" s="90">
         <v>59</v>
       </c>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="87"/>
-      <c r="AB16" s="88"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="92"/>
     </row>
     <row r="17" ht="19.9" customHeight="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" t="s" s="89">
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" t="s" s="93">
         <v>60</v>
       </c>
-      <c r="R17" s="85"/>
-      <c r="S17" t="s" s="90">
+      <c r="R17" s="89"/>
+      <c r="S17" t="s" s="94">
         <v>61</v>
       </c>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="87"/>
-      <c r="AB17" s="88"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="92"/>
     </row>
     <row r="18" ht="19.9" customHeight="1">
-      <c r="A18" s="80"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" t="s" s="89">
+      <c r="A18" s="84"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" t="s" s="93">
         <v>62</v>
       </c>
-      <c r="R18" s="85"/>
-      <c r="S18" t="s" s="86">
+      <c r="R18" s="89"/>
+      <c r="S18" t="s" s="90">
         <v>63</v>
       </c>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="88"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="92"/>
     </row>
     <row r="19" ht="19.9" customHeight="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" t="s" s="95">
+      <c r="A19" s="95"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" t="s" s="99">
         <v>64</v>
       </c>
-      <c r="R19" s="96"/>
-      <c r="S19" t="s" s="97">
+      <c r="R19" s="100"/>
+      <c r="S19" t="s" s="101">
         <v>65</v>
       </c>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="98"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="98"/>
-      <c r="AB19" s="99"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="103"/>
     </row>
     <row r="20" ht="26.5" customHeight="1">
-      <c r="A20" t="s" s="100">
+      <c r="A20" t="s" s="104">
         <v>66</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" t="s" s="102">
-        <v>67</v>
-      </c>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="103"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="104"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="107"/>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="107"/>
+      <c r="Z20" s="107"/>
+      <c r="AA20" s="107"/>
+      <c r="AB20" s="108"/>
     </row>
     <row r="21" ht="26.5" customHeight="1">
-      <c r="A21" t="s" s="105">
+      <c r="A21" t="s" s="109">
         <v>68</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="107">
-        <v>43754</v>
-      </c>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="108"/>
-      <c r="U21" s="108"/>
-      <c r="V21" s="108"/>
-      <c r="W21" s="108"/>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="108"/>
-      <c r="Z21" s="108"/>
-      <c r="AA21" s="108"/>
-      <c r="AB21" s="109"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="112"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="112"/>
+      <c r="W21" s="112"/>
+      <c r="X21" s="112"/>
+      <c r="Y21" s="112"/>
+      <c r="Z21" s="112"/>
+      <c r="AA21" s="112"/>
+      <c r="AB21" s="113"/>
     </row>
     <row r="22" ht="26.5" customHeight="1">
-      <c r="A22" t="s" s="110">
+      <c r="A22" t="s" s="114">
         <v>69</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="112"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="116"/>
     </row>
     <row r="23" ht="21.65" customHeight="1">
-      <c r="A23" t="s" s="113">
+      <c r="A23" t="s" s="117">
         <v>70</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="114"/>
-      <c r="R23" s="114"/>
-      <c r="S23" s="114"/>
-      <c r="T23" s="114"/>
-      <c r="U23" s="114"/>
-      <c r="V23" s="114"/>
-      <c r="W23" s="114"/>
-      <c r="X23" s="114"/>
-      <c r="Y23" s="114"/>
-      <c r="Z23" s="114"/>
-      <c r="AA23" s="114"/>
-      <c r="AB23" s="115"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="118"/>
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="118"/>
+      <c r="AB23" s="119"/>
     </row>
     <row r="24" ht="28.9" customHeight="1">
-      <c r="A24" t="s" s="116">
+      <c r="A24" t="s" s="120">
         <v>71</v>
       </c>
-      <c r="B24" t="s" s="117">
+      <c r="B24" t="s" s="121">
         <v>72</v>
       </c>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" t="s" s="117">
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" t="s" s="121">
         <v>73</v>
       </c>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" t="s" s="53">
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" t="s" s="57">
         <v>74</v>
       </c>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" t="s" s="117">
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" t="s" s="121">
         <v>75</v>
       </c>
-      <c r="S24" t="s" s="117">
+      <c r="S24" t="s" s="121">
         <v>76</v>
       </c>
-      <c r="T24" s="119"/>
-      <c r="U24" s="119"/>
-      <c r="V24" s="119"/>
-      <c r="W24" t="s" s="120">
+      <c r="T24" s="123"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="123"/>
+      <c r="W24" t="s" s="124">
         <v>77</v>
       </c>
-      <c r="X24" s="121"/>
-      <c r="Y24" t="s" s="117">
+      <c r="X24" s="125"/>
+      <c r="Y24" t="s" s="121">
         <v>78</v>
       </c>
-      <c r="Z24" s="118"/>
-      <c r="AA24" s="118"/>
-      <c r="AB24" t="s" s="122">
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="122"/>
+      <c r="AB24" t="s" s="126">
         <v>79</v>
       </c>
     </row>
     <row r="25" ht="21.65" customHeight="1">
-      <c r="A25" s="123">
+      <c r="A25" s="127">
         <v>1</v>
       </c>
-      <c r="B25" t="s" s="124">
+      <c r="B25" t="s" s="128">
         <v>80</v>
       </c>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="126">
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="130">
         <v>300</v>
       </c>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" t="s" s="127">
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" t="s" s="131">
         <v>81</v>
       </c>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="126">
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="130">
         <v>12</v>
       </c>
-      <c r="S25" t="s" s="127">
+      <c r="S25" t="s" s="131">
         <v>13</v>
       </c>
-      <c r="T25" s="128"/>
-      <c r="U25" s="128"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="129"/>
-      <c r="X25" s="130"/>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="81"/>
-      <c r="AA25" s="81"/>
-      <c r="AB25" t="s" s="131">
+      <c r="T25" s="132"/>
+      <c r="U25" s="132"/>
+      <c r="V25" s="132"/>
+      <c r="W25" s="133"/>
+      <c r="X25" s="134"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" t="s" s="135">
         <v>82</v>
       </c>
     </row>
     <row r="26" ht="21.65" customHeight="1">
-      <c r="A26" s="123">
+      <c r="A26" s="127">
         <v>2</v>
       </c>
-      <c r="B26" t="s" s="124">
+      <c r="B26" t="s" s="128">
         <v>83</v>
       </c>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="126">
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130">
         <v>300</v>
       </c>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" t="s" s="127">
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" t="s" s="131">
         <v>81</v>
       </c>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="126">
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="130">
         <v>12</v>
       </c>
-      <c r="S26" t="s" s="127">
+      <c r="S26" t="s" s="131">
         <v>13</v>
       </c>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="129"/>
-      <c r="X26" s="130"/>
-      <c r="Y26" s="81"/>
-      <c r="Z26" s="81"/>
-      <c r="AA26" s="81"/>
-      <c r="AB26" t="s" s="131">
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="133"/>
+      <c r="X26" s="134"/>
+      <c r="Y26" s="85"/>
+      <c r="Z26" s="85"/>
+      <c r="AA26" s="85"/>
+      <c r="AB26" t="s" s="135">
         <v>82</v>
       </c>
     </row>
     <row r="27" ht="21.65" customHeight="1">
-      <c r="A27" s="123">
+      <c r="A27" s="127">
         <v>3</v>
       </c>
-      <c r="B27" t="s" s="124">
+      <c r="B27" t="s" s="128">
         <v>84</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="126">
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="130">
         <v>300</v>
       </c>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" t="s" s="127">
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" t="s" s="131">
         <v>81</v>
       </c>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="126">
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="130">
         <v>12</v>
       </c>
-      <c r="S27" t="s" s="127">
+      <c r="S27" t="s" s="131">
         <v>13</v>
       </c>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="129"/>
-      <c r="X27" s="130"/>
-      <c r="Y27" s="81"/>
-      <c r="Z27" s="81"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" t="s" s="131">
+      <c r="T27" s="132"/>
+      <c r="U27" s="132"/>
+      <c r="V27" s="132"/>
+      <c r="W27" s="133"/>
+      <c r="X27" s="134"/>
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="85"/>
+      <c r="AA27" s="85"/>
+      <c r="AB27" t="s" s="135">
         <v>82</v>
       </c>
     </row>
     <row r="28" ht="21.65" customHeight="1">
-      <c r="A28" s="123">
+      <c r="A28" s="127">
         <v>4</v>
       </c>
-      <c r="B28" t="s" s="124">
+      <c r="B28" t="s" s="128">
         <v>80</v>
       </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="126">
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="130">
         <v>300</v>
       </c>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" t="s" s="127">
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" t="s" s="131">
         <v>85</v>
       </c>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="126">
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="130">
         <v>12</v>
       </c>
-      <c r="S28" t="s" s="127">
+      <c r="S28" t="s" s="131">
         <v>13</v>
       </c>
-      <c r="T28" s="128"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="129"/>
-      <c r="X28" s="130"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" t="s" s="131">
+      <c r="T28" s="132"/>
+      <c r="U28" s="132"/>
+      <c r="V28" s="132"/>
+      <c r="W28" s="133"/>
+      <c r="X28" s="134"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" t="s" s="135">
         <v>82</v>
       </c>
     </row>
     <row r="29" ht="21.65" customHeight="1">
-      <c r="A29" s="123">
+      <c r="A29" s="127">
         <v>5</v>
       </c>
-      <c r="B29" t="s" s="124">
+      <c r="B29" t="s" s="128">
         <v>83</v>
       </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="126">
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="130">
         <v>300</v>
       </c>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" t="s" s="127">
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" t="s" s="131">
         <v>85</v>
       </c>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="126">
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="130">
         <v>12</v>
       </c>
-      <c r="S29" t="s" s="127">
+      <c r="S29" t="s" s="131">
         <v>13</v>
       </c>
-      <c r="T29" s="128"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="129"/>
-      <c r="X29" s="130"/>
-      <c r="Y29" s="81"/>
-      <c r="Z29" s="81"/>
-      <c r="AA29" s="81"/>
-      <c r="AB29" t="s" s="131">
+      <c r="T29" s="132"/>
+      <c r="U29" s="132"/>
+      <c r="V29" s="132"/>
+      <c r="W29" s="133"/>
+      <c r="X29" s="134"/>
+      <c r="Y29" s="85"/>
+      <c r="Z29" s="85"/>
+      <c r="AA29" s="85"/>
+      <c r="AB29" t="s" s="135">
         <v>82</v>
       </c>
     </row>
     <row r="30" ht="21.65" customHeight="1">
-      <c r="A30" s="123">
+      <c r="A30" s="127">
         <v>6</v>
       </c>
-      <c r="B30" t="s" s="124">
+      <c r="B30" t="s" s="128">
         <v>84</v>
       </c>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="126">
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="130">
         <v>300</v>
       </c>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" t="s" s="127">
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" t="s" s="131">
         <v>85</v>
       </c>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="126">
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="130">
         <v>12</v>
       </c>
-      <c r="S30" t="s" s="127">
+      <c r="S30" t="s" s="131">
         <v>13</v>
       </c>
-      <c r="T30" s="128"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="129"/>
-      <c r="X30" s="130"/>
-      <c r="Y30" s="81"/>
-      <c r="Z30" s="81"/>
-      <c r="AA30" s="81"/>
-      <c r="AB30" t="s" s="131">
+      <c r="T30" s="132"/>
+      <c r="U30" s="132"/>
+      <c r="V30" s="132"/>
+      <c r="W30" s="133"/>
+      <c r="X30" s="134"/>
+      <c r="Y30" s="85"/>
+      <c r="Z30" s="85"/>
+      <c r="AA30" s="85"/>
+      <c r="AB30" t="s" s="135">
         <v>82</v>
       </c>
     </row>
     <row r="31" ht="21.65" customHeight="1">
-      <c r="A31" s="123">
+      <c r="A31" s="127">
         <v>7</v>
       </c>
-      <c r="B31" t="s" s="124">
+      <c r="B31" t="s" s="128">
         <v>86</v>
       </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="126">
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="130">
         <v>300</v>
       </c>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" t="s" s="127">
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" t="s" s="131">
         <v>87</v>
       </c>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="126">
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="130">
         <v>4</v>
       </c>
-      <c r="S31" t="s" s="127">
+      <c r="S31" t="s" s="131">
         <v>88</v>
       </c>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="129"/>
-      <c r="X31" s="130"/>
-      <c r="Y31" s="81"/>
-      <c r="Z31" s="81"/>
-      <c r="AA31" s="81"/>
-      <c r="AB31" t="s" s="131">
+      <c r="T31" s="132"/>
+      <c r="U31" s="132"/>
+      <c r="V31" s="132"/>
+      <c r="W31" s="133"/>
+      <c r="X31" s="134"/>
+      <c r="Y31" s="85"/>
+      <c r="Z31" s="85"/>
+      <c r="AA31" s="85"/>
+      <c r="AB31" t="s" s="135">
         <v>82</v>
       </c>
     </row>
     <row r="32" ht="21.65" customHeight="1">
-      <c r="A32" t="s" s="132">
+      <c r="A32" t="s" s="136">
         <v>89</v>
       </c>
-      <c r="B32" s="125"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="81"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="128"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="129"/>
-      <c r="X32" s="130"/>
-      <c r="Y32" s="81"/>
-      <c r="Z32" s="81"/>
-      <c r="AA32" s="81"/>
-      <c r="AB32" s="133"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="132"/>
+      <c r="U32" s="132"/>
+      <c r="V32" s="132"/>
+      <c r="W32" s="133"/>
+      <c r="X32" s="134"/>
+      <c r="Y32" s="85"/>
+      <c r="Z32" s="85"/>
+      <c r="AA32" s="85"/>
+      <c r="AB32" s="137"/>
     </row>
     <row r="33" ht="21.65" customHeight="1">
-      <c r="A33" s="134"/>
-      <c r="B33" s="125"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="81"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="129"/>
-      <c r="X33" s="130"/>
-      <c r="Y33" s="81"/>
-      <c r="Z33" s="81"/>
-      <c r="AA33" s="81"/>
-      <c r="AB33" s="133"/>
+      <c r="A33" s="138"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="85"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="132"/>
+      <c r="T33" s="132"/>
+      <c r="U33" s="132"/>
+      <c r="V33" s="132"/>
+      <c r="W33" s="133"/>
+      <c r="X33" s="134"/>
+      <c r="Y33" s="85"/>
+      <c r="Z33" s="85"/>
+      <c r="AA33" s="85"/>
+      <c r="AB33" s="137"/>
     </row>
     <row r="34" ht="21.65" customHeight="1">
-      <c r="A34" s="123">
+      <c r="A34" s="127">
         <v>10</v>
       </c>
-      <c r="B34" s="125"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81"/>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="81"/>
-      <c r="S34" s="128"/>
-      <c r="T34" s="128"/>
-      <c r="U34" s="128"/>
-      <c r="V34" s="128"/>
-      <c r="W34" s="129"/>
-      <c r="X34" s="130"/>
-      <c r="Y34" s="81"/>
-      <c r="Z34" s="81"/>
-      <c r="AA34" s="81"/>
-      <c r="AB34" s="133"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="132"/>
+      <c r="T34" s="132"/>
+      <c r="U34" s="132"/>
+      <c r="V34" s="132"/>
+      <c r="W34" s="133"/>
+      <c r="X34" s="134"/>
+      <c r="Y34" s="85"/>
+      <c r="Z34" s="85"/>
+      <c r="AA34" s="85"/>
+      <c r="AB34" s="137"/>
     </row>
     <row r="35" ht="21.65" customHeight="1">
-      <c r="A35" s="123">
+      <c r="A35" s="127">
         <v>11</v>
       </c>
-      <c r="B35" s="125"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="128"/>
-      <c r="T35" s="128"/>
-      <c r="U35" s="128"/>
-      <c r="V35" s="128"/>
-      <c r="W35" s="129"/>
-      <c r="X35" s="130"/>
-      <c r="Y35" s="81"/>
-      <c r="Z35" s="81"/>
-      <c r="AA35" s="81"/>
-      <c r="AB35" s="133"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="132"/>
+      <c r="T35" s="132"/>
+      <c r="U35" s="132"/>
+      <c r="V35" s="132"/>
+      <c r="W35" s="133"/>
+      <c r="X35" s="134"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="85"/>
+      <c r="AA35" s="85"/>
+      <c r="AB35" s="137"/>
     </row>
     <row r="36" ht="21.65" customHeight="1">
-      <c r="A36" s="123">
+      <c r="A36" s="127">
         <v>12</v>
       </c>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="128"/>
-      <c r="T36" s="128"/>
-      <c r="U36" s="128"/>
-      <c r="V36" s="128"/>
-      <c r="W36" s="129"/>
-      <c r="X36" s="130"/>
-      <c r="Y36" s="81"/>
-      <c r="Z36" s="81"/>
-      <c r="AA36" s="81"/>
-      <c r="AB36" s="133"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="132"/>
+      <c r="T36" s="132"/>
+      <c r="U36" s="132"/>
+      <c r="V36" s="132"/>
+      <c r="W36" s="133"/>
+      <c r="X36" s="134"/>
+      <c r="Y36" s="85"/>
+      <c r="Z36" s="85"/>
+      <c r="AA36" s="85"/>
+      <c r="AB36" s="137"/>
     </row>
     <row r="37" ht="21.65" customHeight="1">
-      <c r="A37" s="123">
+      <c r="A37" s="127">
         <v>13</v>
       </c>
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="81"/>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="128"/>
-      <c r="U37" s="128"/>
-      <c r="V37" s="128"/>
-      <c r="W37" s="129"/>
-      <c r="X37" s="130"/>
-      <c r="Y37" s="81"/>
-      <c r="Z37" s="81"/>
-      <c r="AA37" s="81"/>
-      <c r="AB37" s="133"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85"/>
+      <c r="R37" s="85"/>
+      <c r="S37" s="132"/>
+      <c r="T37" s="132"/>
+      <c r="U37" s="132"/>
+      <c r="V37" s="132"/>
+      <c r="W37" s="133"/>
+      <c r="X37" s="134"/>
+      <c r="Y37" s="85"/>
+      <c r="Z37" s="85"/>
+      <c r="AA37" s="85"/>
+      <c r="AB37" s="137"/>
     </row>
     <row r="38" ht="21.65" customHeight="1">
-      <c r="A38" s="135">
+      <c r="A38" s="139">
         <v>14</v>
       </c>
-      <c r="B38" s="136"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="92"/>
-      <c r="O38" s="92"/>
-      <c r="P38" s="92"/>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="92"/>
-      <c r="S38" s="137"/>
-      <c r="T38" s="137"/>
-      <c r="U38" s="137"/>
-      <c r="V38" s="137"/>
-      <c r="W38" s="138"/>
-      <c r="X38" s="139"/>
-      <c r="Y38" s="92"/>
-      <c r="Z38" s="92"/>
-      <c r="AA38" s="92"/>
-      <c r="AB38" s="140"/>
+      <c r="B38" s="140"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="96"/>
+      <c r="M38" s="96"/>
+      <c r="N38" s="96"/>
+      <c r="O38" s="96"/>
+      <c r="P38" s="96"/>
+      <c r="Q38" s="96"/>
+      <c r="R38" s="96"/>
+      <c r="S38" s="141"/>
+      <c r="T38" s="141"/>
+      <c r="U38" s="141"/>
+      <c r="V38" s="141"/>
+      <c r="W38" s="142"/>
+      <c r="X38" s="143"/>
+      <c r="Y38" s="96"/>
+      <c r="Z38" s="96"/>
+      <c r="AA38" s="96"/>
+      <c r="AB38" s="144"/>
     </row>
     <row r="39" ht="25.15" customHeight="1">
-      <c r="A39" t="s" s="141">
+      <c r="A39" t="s" s="145">
         <v>90</v>
       </c>
-      <c r="B39" s="142"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="142"/>
-      <c r="F39" t="s" s="143">
+      <c r="B39" s="146"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" t="s" s="147">
         <v>91</v>
       </c>
-      <c r="G39" s="144"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="144"/>
-      <c r="K39" s="144"/>
-      <c r="L39" s="144"/>
-      <c r="M39" s="144"/>
-      <c r="N39" s="144"/>
-      <c r="O39" s="144"/>
-      <c r="P39" t="s" s="145">
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
+      <c r="N39" s="148"/>
+      <c r="O39" s="148"/>
+      <c r="P39" t="s" s="149">
         <v>92</v>
       </c>
-      <c r="Q39" s="114"/>
-      <c r="R39" s="114"/>
-      <c r="S39" s="114"/>
-      <c r="T39" s="114"/>
-      <c r="U39" t="s" s="145">
+      <c r="Q39" s="118"/>
+      <c r="R39" s="118"/>
+      <c r="S39" s="118"/>
+      <c r="T39" s="118"/>
+      <c r="U39" t="s" s="149">
         <v>93</v>
       </c>
-      <c r="V39" s="114"/>
-      <c r="W39" s="114"/>
-      <c r="X39" s="114"/>
-      <c r="Y39" s="114"/>
-      <c r="Z39" t="s" s="145">
+      <c r="V39" s="118"/>
+      <c r="W39" s="118"/>
+      <c r="X39" s="118"/>
+      <c r="Y39" s="118"/>
+      <c r="Z39" t="s" s="149">
         <v>94</v>
       </c>
-      <c r="AA39" s="114"/>
-      <c r="AB39" s="115"/>
+      <c r="AA39" s="118"/>
+      <c r="AB39" s="119"/>
     </row>
     <row r="40" ht="25.15" customHeight="1">
-      <c r="A40" t="s" s="146">
+      <c r="A40" t="s" s="150">
         <v>95</v>
       </c>
-      <c r="B40" s="147"/>
-      <c r="C40" s="147"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" t="s" s="148">
+      <c r="B40" s="151"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" t="s" s="152">
         <v>96</v>
       </c>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
-      <c r="N40" s="149"/>
-      <c r="O40" s="149"/>
-      <c r="P40" t="s" s="150">
+      <c r="G40" s="153"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="153"/>
+      <c r="J40" s="153"/>
+      <c r="K40" s="153"/>
+      <c r="L40" s="153"/>
+      <c r="M40" s="153"/>
+      <c r="N40" s="153"/>
+      <c r="O40" s="153"/>
+      <c r="P40" t="s" s="154">
         <v>97</v>
       </c>
-      <c r="Q40" s="151"/>
-      <c r="R40" s="151"/>
-      <c r="S40" s="151"/>
-      <c r="T40" s="152"/>
-      <c r="U40" t="s" s="150">
+      <c r="Q40" s="155"/>
+      <c r="R40" s="155"/>
+      <c r="S40" s="155"/>
+      <c r="T40" s="156"/>
+      <c r="U40" t="s" s="154">
         <v>98</v>
       </c>
-      <c r="V40" s="151"/>
-      <c r="W40" s="151"/>
-      <c r="X40" s="151"/>
-      <c r="Y40" s="152"/>
-      <c r="Z40" s="149"/>
-      <c r="AA40" s="149"/>
-      <c r="AB40" s="153"/>
+      <c r="V40" s="155"/>
+      <c r="W40" s="155"/>
+      <c r="X40" s="155"/>
+      <c r="Y40" s="156"/>
+      <c r="Z40" s="153"/>
+      <c r="AA40" s="153"/>
+      <c r="AB40" s="157"/>
     </row>
     <row r="41" ht="25.15" customHeight="1">
-      <c r="A41" t="s" s="146">
+      <c r="A41" t="s" s="150">
         <v>99</v>
       </c>
-      <c r="B41" s="147"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" t="s" s="25">
+      <c r="B41" s="151"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" t="s" s="158">
         <v>100</v>
       </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" t="s" s="25">
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" t="s" s="158">
         <v>100</v>
       </c>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" t="s" s="148">
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" t="s" s="152">
         <v>101</v>
       </c>
-      <c r="V41" s="149"/>
-      <c r="W41" s="149"/>
-      <c r="X41" s="149"/>
-      <c r="Y41" s="149"/>
-      <c r="Z41" s="149"/>
-      <c r="AA41" s="149"/>
-      <c r="AB41" s="153"/>
+      <c r="V41" s="153"/>
+      <c r="W41" s="153"/>
+      <c r="X41" s="153"/>
+      <c r="Y41" s="153"/>
+      <c r="Z41" s="153"/>
+      <c r="AA41" s="153"/>
+      <c r="AB41" s="157"/>
     </row>
     <row r="42" ht="25.15" customHeight="1">
-      <c r="A42" t="s" s="146">
+      <c r="A42" t="s" s="150">
         <v>102</v>
       </c>
-      <c r="B42" s="147"/>
-      <c r="C42" s="147"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="154">
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="159">
         <v>43754</v>
       </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="154">
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="159">
         <v>43754</v>
       </c>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="155">
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="160">
         <v>43754</v>
       </c>
-      <c r="V42" s="149"/>
-      <c r="W42" s="149"/>
-      <c r="X42" s="149"/>
-      <c r="Y42" s="149"/>
-      <c r="Z42" s="149"/>
-      <c r="AA42" s="149"/>
-      <c r="AB42" s="153"/>
+      <c r="V42" s="153"/>
+      <c r="W42" s="153"/>
+      <c r="X42" s="153"/>
+      <c r="Y42" s="153"/>
+      <c r="Z42" s="153"/>
+      <c r="AA42" s="153"/>
+      <c r="AB42" s="157"/>
     </row>
     <row r="43" ht="57.65" customHeight="1">
-      <c r="A43" t="s" s="156">
+      <c r="A43" t="s" s="161">
         <v>103</v>
       </c>
-      <c r="B43" s="157"/>
-      <c r="C43" s="157"/>
-      <c r="D43" s="157"/>
-      <c r="E43" s="157"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="158"/>
-      <c r="I43" s="158"/>
-      <c r="J43" s="158"/>
-      <c r="K43" s="158"/>
-      <c r="L43" s="158"/>
-      <c r="M43" s="158"/>
-      <c r="N43" s="158"/>
-      <c r="O43" s="158"/>
-      <c r="P43" s="158"/>
-      <c r="Q43" s="158"/>
-      <c r="R43" s="158"/>
-      <c r="S43" s="158"/>
-      <c r="T43" s="158"/>
-      <c r="U43" s="158"/>
-      <c r="V43" s="158"/>
-      <c r="W43" s="158"/>
-      <c r="X43" s="158"/>
-      <c r="Y43" s="158"/>
-      <c r="Z43" s="158"/>
-      <c r="AA43" s="158"/>
-      <c r="AB43" s="159"/>
+      <c r="B43" s="162"/>
+      <c r="C43" s="162"/>
+      <c r="D43" s="162"/>
+      <c r="E43" s="162"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="163"/>
+      <c r="K43" s="163"/>
+      <c r="L43" s="163"/>
+      <c r="M43" s="163"/>
+      <c r="N43" s="163"/>
+      <c r="O43" s="163"/>
+      <c r="P43" s="163"/>
+      <c r="Q43" s="163"/>
+      <c r="R43" s="163"/>
+      <c r="S43" s="163"/>
+      <c r="T43" s="163"/>
+      <c r="U43" s="163"/>
+      <c r="V43" s="163"/>
+      <c r="W43" s="163"/>
+      <c r="X43" s="163"/>
+      <c r="Y43" s="163"/>
+      <c r="Z43" s="163"/>
+      <c r="AA43" s="163"/>
+      <c r="AB43" s="164"/>
     </row>
     <row r="44" ht="16.15" customHeight="1">
-      <c r="A44" t="s" s="160">
+      <c r="A44" t="s" s="165">
         <v>104</v>
       </c>
-      <c r="B44" s="161"/>
-      <c r="C44" s="161"/>
-      <c r="D44" s="161"/>
-      <c r="E44" s="161"/>
-      <c r="F44" s="161"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="161"/>
-      <c r="J44" s="161"/>
-      <c r="K44" s="161"/>
-      <c r="L44" s="161"/>
-      <c r="M44" s="161"/>
-      <c r="N44" s="161"/>
-      <c r="O44" s="161"/>
-      <c r="P44" s="161"/>
-      <c r="Q44" s="161"/>
-      <c r="R44" s="161"/>
-      <c r="S44" s="161"/>
-      <c r="T44" s="161"/>
-      <c r="U44" s="161"/>
-      <c r="V44" s="161"/>
-      <c r="W44" s="161"/>
-      <c r="X44" s="161"/>
-      <c r="Y44" s="161"/>
-      <c r="Z44" s="161"/>
-      <c r="AA44" s="161"/>
-      <c r="AB44" s="161"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="166"/>
+      <c r="E44" s="166"/>
+      <c r="F44" s="166"/>
+      <c r="G44" s="166"/>
+      <c r="H44" s="166"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="166"/>
+      <c r="L44" s="166"/>
+      <c r="M44" s="166"/>
+      <c r="N44" s="166"/>
+      <c r="O44" s="166"/>
+      <c r="P44" s="166"/>
+      <c r="Q44" s="166"/>
+      <c r="R44" s="166"/>
+      <c r="S44" s="166"/>
+      <c r="T44" s="166"/>
+      <c r="U44" s="166"/>
+      <c r="V44" s="166"/>
+      <c r="W44" s="166"/>
+      <c r="X44" s="166"/>
+      <c r="Y44" s="166"/>
+      <c r="Z44" s="166"/>
+      <c r="AA44" s="166"/>
+      <c r="AB44" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="202">

--- a/MagneticReport.xlsx
+++ b/MagneticReport.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137" count="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165" count="666">
   <si>
     <t xml:space="preserve"> GÖZETİM MUAYENE VE EĞİTİM HİZMETLERİ</t>
   </si>
@@ -1522,6 +1522,90 @@
   </si>
   <si>
     <t>32</t>
+  </si>
+  <si>
+    <t>TS EN ISO 17638</t>
+  </si>
+  <si>
+    <t>TS EN ISO 23278 Class B</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>BT-20 LOT:B036P01</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>müş ad</t>
+  </si>
+  <si>
+    <t>Jabbar</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>sdfs</t>
+  </si>
+  <si>
+    <t>fsfsd</t>
+  </si>
+  <si>
+    <t>fsdfsdfsd</t>
+  </si>
+  <si>
+    <t>İlk deneme</t>
+  </si>
+  <si>
+    <t>gümüşgöze</t>
+  </si>
+  <si>
+    <t>%100</t>
+  </si>
+  <si>
+    <t>son aşama</t>
+  </si>
+  <si>
+    <t>13.06.2020</t>
+  </si>
+  <si>
+    <t>ileri</t>
+  </si>
+  <si>
+    <t>çok</t>
+  </si>
+  <si>
+    <t>e işte</t>
+  </si>
+  <si>
+    <t>yok</t>
+  </si>
+  <si>
+    <t>oki</t>
+  </si>
+  <si>
+    <t>06.2020</t>
+  </si>
+  <si>
+    <t>deneme</t>
+  </si>
+  <si>
+    <t>Hasan</t>
+  </si>
+  <si>
+    <t>biri</t>
+  </si>
+  <si>
+    <t>müdür</t>
+  </si>
+  <si>
+    <t>deniz</t>
   </si>
 </sst>
 </file>
@@ -3945,7 +4029,7 @@
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" t="s" s="16">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="18"/>
@@ -3965,7 +4049,7 @@
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
       <c r="T3" t="s" s="22">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="U3" s="23"/>
       <c r="V3" s="23"/>
@@ -3976,7 +4060,7 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB3" s="25"/>
     </row>
@@ -3987,7 +4071,7 @@
       <c r="B4" s="27"/>
       <c r="C4" s="28"/>
       <c r="D4" t="s" s="29">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -4007,7 +4091,7 @@
       <c r="R4" s="27"/>
       <c r="S4" s="27"/>
       <c r="T4" s="32" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="U4" s="33"/>
       <c r="V4" s="33"/>
@@ -4018,7 +4102,7 @@
       <c r="Y4" s="27"/>
       <c r="Z4" s="27"/>
       <c r="AA4" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB4" s="35"/>
     </row>
@@ -4029,7 +4113,7 @@
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" t="s" s="36">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="38"/>
@@ -4049,7 +4133,7 @@
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
       <c r="T5" t="s" s="39">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="U5" s="40"/>
       <c r="V5" s="40"/>
@@ -4060,7 +4144,7 @@
       <c r="Y5" s="27"/>
       <c r="Z5" s="27"/>
       <c r="AA5" s="41" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="AB5" s="35"/>
     </row>
@@ -4071,7 +4155,7 @@
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" t="s" s="29">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -4091,7 +4175,7 @@
       <c r="R6" s="27"/>
       <c r="S6" s="27"/>
       <c r="T6" t="s" s="39">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="U6" s="40"/>
       <c r="V6" s="40"/>
@@ -4102,7 +4186,7 @@
       <c r="Y6" s="27"/>
       <c r="Z6" s="27"/>
       <c r="AA6" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB6" s="35"/>
     </row>
@@ -4113,7 +4197,7 @@
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" t="s" s="44">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
@@ -4133,7 +4217,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="43"/>
       <c r="T7" t="s" s="47">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="U7" s="48"/>
       <c r="V7" s="48"/>
@@ -4144,7 +4228,7 @@
       <c r="Y7" s="43"/>
       <c r="Z7" s="43"/>
       <c r="AA7" t="s" s="44">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB7" s="49"/>
     </row>
@@ -4188,7 +4272,7 @@
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
       <c r="E9" t="s" s="54">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="55"/>
@@ -4204,7 +4288,7 @@
       <c r="O9" s="53"/>
       <c r="P9" s="53"/>
       <c r="Q9" t="s" s="54">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="R9" s="55"/>
       <c r="S9" s="55"/>
@@ -4217,7 +4301,7 @@
       <c r="X9" s="53"/>
       <c r="Y9" s="53"/>
       <c r="Z9" t="s" s="54">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AA9" s="55"/>
       <c r="AB9" s="56"/>
@@ -4230,7 +4314,7 @@
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
       <c r="E10" t="s" s="54">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F10" s="55"/>
       <c r="G10" s="55"/>
@@ -4246,7 +4330,7 @@
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
       <c r="Q10" t="s" s="54">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="R10" s="55"/>
       <c r="S10" s="55"/>
@@ -4259,7 +4343,7 @@
       <c r="X10" s="58"/>
       <c r="Y10" s="58"/>
       <c r="Z10" t="s" s="54">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="AA10" s="55"/>
       <c r="AB10" s="56"/>
@@ -4272,7 +4356,7 @@
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
       <c r="E11" t="s" s="54">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="F11" s="55"/>
       <c r="G11" s="55"/>
@@ -4288,7 +4372,7 @@
       <c r="O11" s="53"/>
       <c r="P11" s="53"/>
       <c r="Q11" t="s" s="54">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="R11" s="55"/>
       <c r="S11" s="55"/>
@@ -4299,7 +4383,7 @@
       <c r="X11" s="58"/>
       <c r="Y11" s="58"/>
       <c r="Z11" s="55" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AA11" s="55"/>
       <c r="AB11" s="56"/>
@@ -4312,7 +4396,7 @@
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
       <c r="E12" s="55" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F12" s="59"/>
       <c r="G12" s="59"/>
@@ -4328,7 +4412,7 @@
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
       <c r="Q12" s="55" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="R12" s="59"/>
       <c r="S12" s="59"/>
@@ -4341,7 +4425,7 @@
       <c r="X12" s="53"/>
       <c r="Y12" s="53"/>
       <c r="Z12" t="s" s="60">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AA12" s="59"/>
       <c r="AB12" s="61"/>
@@ -4354,7 +4438,7 @@
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
       <c r="E13" t="s" s="54">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="F13" s="55"/>
       <c r="G13" s="55"/>
@@ -4370,7 +4454,7 @@
       <c r="O13" s="53"/>
       <c r="P13" s="53"/>
       <c r="Q13" s="55" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="R13" s="55"/>
       <c r="S13" s="55"/>
@@ -4383,7 +4467,7 @@
       <c r="X13" s="63"/>
       <c r="Y13" s="64"/>
       <c r="Z13" t="s" s="65">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AA13" s="66"/>
       <c r="AB13" s="67"/>
@@ -4396,7 +4480,7 @@
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
       <c r="E14" t="s" s="69">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="F14" s="70"/>
       <c r="G14" s="70"/>
@@ -4412,7 +4496,7 @@
       <c r="O14" s="68"/>
       <c r="P14" s="68"/>
       <c r="Q14" s="70" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="R14" s="70"/>
       <c r="S14" s="70"/>
@@ -4608,7 +4692,9 @@
       <c r="E20" s="105"/>
       <c r="F20" s="105"/>
       <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
+      <c r="H20" s="106" t="s">
+        <v>157</v>
+      </c>
       <c r="I20" s="107"/>
       <c r="J20" s="107"/>
       <c r="K20" s="107"/>
@@ -4640,7 +4726,9 @@
       <c r="E21" s="110"/>
       <c r="F21" s="110"/>
       <c r="G21" s="110"/>
-      <c r="H21" s="111"/>
+      <c r="H21" s="111" t="s">
+        <v>159</v>
+      </c>
       <c r="I21" s="112"/>
       <c r="J21" s="112"/>
       <c r="K21" s="112"/>
@@ -4672,7 +4760,9 @@
       <c r="E22" s="115"/>
       <c r="F22" s="115"/>
       <c r="G22" s="115"/>
-      <c r="H22" s="96"/>
+      <c r="H22" s="96" t="s">
+        <v>160</v>
+      </c>
       <c r="I22" s="96"/>
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
@@ -4779,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s" s="128">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C25" s="129"/>
       <c r="D25" s="129"/>
@@ -4787,35 +4877,39 @@
       <c r="F25" s="129"/>
       <c r="G25" s="129"/>
       <c r="H25" s="129"/>
-      <c r="I25" s="130">
-        <v>300</v>
+      <c r="I25" s="130" t="s">
+        <v>116</v>
       </c>
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
       <c r="L25" t="s" s="131">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="M25" s="85"/>
       <c r="N25" s="85"/>
       <c r="O25" s="85"/>
       <c r="P25" s="85"/>
       <c r="Q25" s="85"/>
-      <c r="R25" s="130">
-        <v>12</v>
+      <c r="R25" s="130" t="s">
+        <v>155</v>
       </c>
       <c r="S25" t="s" s="131">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="T25" s="132"/>
       <c r="U25" s="132"/>
       <c r="V25" s="132"/>
-      <c r="W25" s="133"/>
+      <c r="W25" s="133" t="s">
+        <v>157</v>
+      </c>
       <c r="X25" s="134"/>
-      <c r="Y25" s="85"/>
+      <c r="Y25" s="85" t="s">
+        <v>157</v>
+      </c>
       <c r="Z25" s="85"/>
       <c r="AA25" s="85"/>
       <c r="AB25" t="s" s="135">
-        <v>82</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" ht="21.65" customHeight="1">
@@ -5353,7 +5447,7 @@
       <c r="D40" s="151"/>
       <c r="E40" s="151"/>
       <c r="F40" t="s" s="152">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="G40" s="153"/>
       <c r="H40" s="153"/>
@@ -5365,20 +5459,22 @@
       <c r="N40" s="153"/>
       <c r="O40" s="153"/>
       <c r="P40" t="s" s="154">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="Q40" s="155"/>
       <c r="R40" s="155"/>
       <c r="S40" s="155"/>
       <c r="T40" s="156"/>
       <c r="U40" t="s" s="154">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="V40" s="155"/>
       <c r="W40" s="155"/>
       <c r="X40" s="155"/>
       <c r="Y40" s="156"/>
-      <c r="Z40" s="153"/>
+      <c r="Z40" s="153" t="s">
+        <v>164</v>
+      </c>
       <c r="AA40" s="153"/>
       <c r="AB40" s="157"/>
     </row>
@@ -5391,7 +5487,7 @@
       <c r="D41" s="151"/>
       <c r="E41" s="151"/>
       <c r="F41" t="s" s="158">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
@@ -5403,20 +5499,22 @@
       <c r="N41" s="30"/>
       <c r="O41" s="30"/>
       <c r="P41" t="s" s="158">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Q41" s="30"/>
       <c r="R41" s="30"/>
       <c r="S41" s="30"/>
       <c r="T41" s="30"/>
       <c r="U41" t="s" s="152">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V41" s="153"/>
       <c r="W41" s="153"/>
       <c r="X41" s="153"/>
       <c r="Y41" s="153"/>
-      <c r="Z41" s="153"/>
+      <c r="Z41" s="153" t="s">
+        <v>105</v>
+      </c>
       <c r="AA41" s="153"/>
       <c r="AB41" s="157"/>
     </row>
@@ -5428,8 +5526,8 @@
       <c r="C42" s="151"/>
       <c r="D42" s="151"/>
       <c r="E42" s="151"/>
-      <c r="F42" s="159">
-        <v>43754</v>
+      <c r="F42" s="159" t="s">
+        <v>159</v>
       </c>
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
@@ -5440,21 +5538,23 @@
       <c r="M42" s="30"/>
       <c r="N42" s="30"/>
       <c r="O42" s="30"/>
-      <c r="P42" s="159">
-        <v>43754</v>
+      <c r="P42" s="159" t="s">
+        <v>159</v>
       </c>
       <c r="Q42" s="30"/>
       <c r="R42" s="30"/>
       <c r="S42" s="30"/>
       <c r="T42" s="30"/>
-      <c r="U42" s="160">
-        <v>43754</v>
+      <c r="U42" s="160" t="s">
+        <v>159</v>
       </c>
       <c r="V42" s="153"/>
       <c r="W42" s="153"/>
       <c r="X42" s="153"/>
       <c r="Y42" s="153"/>
-      <c r="Z42" s="153"/>
+      <c r="Z42" s="153" t="s">
+        <v>159</v>
+      </c>
       <c r="AA42" s="153"/>
       <c r="AB42" s="157"/>
     </row>
